--- a/data/trans_dic/P57B_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P57B_R-Clase-trans_dic.xlsx
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.0666235665925892</v>
+        <v>0.06662356659258921</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.08244449342127337</v>
+        <v>0.08244449342127336</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.07407606620544209</v>
+        <v>0.07407606620544208</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.04802529268658295</v>
+        <v>0.04693911267579385</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.06162216300404873</v>
+        <v>0.0638691218394323</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.05977412440611084</v>
+        <v>0.05945967620812949</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.08964705213564261</v>
+        <v>0.09107165772107814</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1083915520465285</v>
+        <v>0.1142201279279888</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.09162660658766812</v>
+        <v>0.08976601632056547</v>
       </c>
     </row>
     <row r="7">
@@ -619,10 +619,10 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.07266032739069946</v>
+        <v>0.07266032739069944</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.09905945709840563</v>
+        <v>0.09905945709840562</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.08497203650508206</v>
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.04935680613691962</v>
+        <v>0.05188069337711543</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.07698527300747642</v>
+        <v>0.07728873610443963</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.06938135720151194</v>
+        <v>0.0702712731733245</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.09799115619614256</v>
+        <v>0.1034641478674957</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1255807385918895</v>
+        <v>0.1246974466260512</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1033742093602461</v>
+        <v>0.1048859849309977</v>
       </c>
     </row>
     <row r="10">
@@ -674,7 +674,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.08628154049177884</v>
+        <v>0.08628154049177886</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>0.1411506910457002</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.0635879548972797</v>
+        <v>0.0647026684575663</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1059736725916291</v>
+        <v>0.1046579032277028</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.08340831438249822</v>
+        <v>0.08079859106123868</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1125378963945739</v>
+        <v>0.115348539522951</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1863889825909494</v>
+        <v>0.189832085938813</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.124493156092901</v>
+        <v>0.1239892213711648</v>
       </c>
     </row>
     <row r="13">
@@ -735,7 +735,7 @@
         <v>0.1202394200858074</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.1208862938034676</v>
+        <v>0.1208862938034675</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1047621327315684</v>
+        <v>0.1038047298021678</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1035547490093313</v>
+        <v>0.1032044467962091</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1075434205829513</v>
+        <v>0.1087841588365489</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1413479199062307</v>
+        <v>0.1440305120242044</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1410849071967188</v>
+        <v>0.1387384756000978</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1364479582418747</v>
+        <v>0.134456471160749</v>
       </c>
     </row>
     <row r="16">
@@ -787,7 +787,7 @@
         <v>0.1677317698731709</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.2233944216646001</v>
+        <v>0.2233944216646002</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>0.2008100725758296</v>
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1385100029452519</v>
+        <v>0.1382087080273841</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.201153018279035</v>
+        <v>0.2019126042005686</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1832814784038777</v>
+        <v>0.1821887452731569</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2010923068469199</v>
+        <v>0.2007835617220005</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2477977200493364</v>
+        <v>0.2507486486148101</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2187185311251788</v>
+        <v>0.2219012721027955</v>
       </c>
     </row>
     <row r="19">
@@ -839,7 +839,7 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0.03989185194926399</v>
+        <v>0.039891851949264</v>
       </c>
       <c r="D19" s="5" t="n">
         <v>0.1663834615268689</v>
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.01733070350853463</v>
+        <v>0.01897389013124167</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.1448279914424908</v>
+        <v>0.1452793933034266</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1196496046760409</v>
+        <v>0.1214567684733243</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.08686572693119314</v>
+        <v>0.09212800517468336</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.190028641686086</v>
+        <v>0.1892177761082511</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1574670198871634</v>
+        <v>0.1582649202603874</v>
       </c>
     </row>
     <row r="22">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.09324402980715925</v>
+        <v>0.09364622653184579</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1383171001290503</v>
+        <v>0.137297307424787</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1183600385221456</v>
+        <v>0.1181387897134483</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1129559656418357</v>
+        <v>0.1135080077583187</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1575033194597863</v>
+        <v>0.1576484224997826</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1321282333476484</v>
+        <v>0.1330324489679447</v>
       </c>
     </row>
     <row r="25">
@@ -1078,13 +1078,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>26217</v>
+        <v>25624</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>29958</v>
+        <v>31050</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>61691</v>
+        <v>61366</v>
       </c>
     </row>
     <row r="7">
@@ -1095,13 +1095,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>48939</v>
+        <v>49717</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>52695</v>
+        <v>55529</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>94565</v>
+        <v>92644</v>
       </c>
     </row>
     <row r="8">
@@ -1150,13 +1150,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>23698</v>
+        <v>24910</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>32304</v>
+        <v>32432</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>62426</v>
+        <v>63227</v>
       </c>
     </row>
     <row r="11">
@@ -1167,13 +1167,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>47049</v>
+        <v>49677</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>52696</v>
+        <v>52325</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>93011</v>
+        <v>94371</v>
       </c>
     </row>
     <row r="12">
@@ -1222,13 +1222,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>29838</v>
+        <v>30361</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>19605</v>
+        <v>19361</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>54569</v>
+        <v>52861</v>
       </c>
     </row>
     <row r="15">
@@ -1239,13 +1239,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>52807</v>
+        <v>54126</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>34481</v>
+        <v>35118</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>81448</v>
+        <v>81118</v>
       </c>
     </row>
     <row r="16">
@@ -1294,13 +1294,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>117011</v>
+        <v>115942</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>88234</v>
+        <v>87935</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>211750</v>
+        <v>214193</v>
       </c>
     </row>
     <row r="19">
@@ -1311,13 +1311,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>157875</v>
+        <v>160871</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>120211</v>
+        <v>118212</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>268662</v>
+        <v>264741</v>
       </c>
     </row>
     <row r="20">
@@ -1366,13 +1366,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>76556</v>
+        <v>76390</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>162840</v>
+        <v>163455</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>249674</v>
+        <v>248186</v>
       </c>
     </row>
     <row r="23">
@@ -1383,13 +1383,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>111146</v>
+        <v>110976</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>200601</v>
+        <v>202990</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>297948</v>
+        <v>302284</v>
       </c>
     </row>
     <row r="24">
@@ -1438,13 +1438,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>4021</v>
+        <v>4402</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>118797</v>
+        <v>119167</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>125903</v>
+        <v>127805</v>
       </c>
     </row>
     <row r="27">
@@ -1455,13 +1455,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>20153</v>
+        <v>21374</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>155873</v>
+        <v>155208</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>165697</v>
+        <v>166537</v>
       </c>
     </row>
     <row r="28">
@@ -1510,13 +1510,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>316743</v>
+        <v>318109</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>494153</v>
+        <v>490510</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>824914</v>
+        <v>823372</v>
       </c>
     </row>
     <row r="31">
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>383703</v>
+        <v>385578</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>562698</v>
+        <v>563216</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>920872</v>
+        <v>927174</v>
       </c>
     </row>
     <row r="32">
